--- a/doc/システムテスト/システムテスト仕様書.xlsx
+++ b/doc/システムテスト/システムテスト仕様書.xlsx
@@ -3,27 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D872B369-823D-44E7-8187-82F1DFE9BDDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B343FBA5-FF50-4C1E-A89E-AB0356B4CAF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="9" r:id="rId1"/>
     <sheet name="項目の説明" sheetId="11" r:id="rId2"/>
     <sheet name="テスト観点表" sheetId="12" r:id="rId3"/>
-    <sheet name="座席監視シナリオ" sheetId="8" r:id="rId4"/>
-    <sheet name="連続稼働シナリオ" sheetId="15" r:id="rId5"/>
+    <sheet name="テスト環境" sheetId="18" r:id="rId4"/>
+    <sheet name="座席監視シナリオ" sheetId="8" r:id="rId5"/>
+    <sheet name="連続稼働シナリオ" sheetId="15" r:id="rId6"/>
+    <sheet name="複数PCでの利用シナリオ" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc303079182" localSheetId="1">項目の説明!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">はじめに!$A$2:$AD$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">項目の説明!$A$2:$AD$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">座席監視シナリオ!$A$2:$BE$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">連続稼働シナリオ!$A$2:$BE$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">座席監視シナリオ!$A$2:$BE$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">複数PCでの利用シナリオ!$A$2:$BE$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">連続稼働シナリオ!$A$2:$BE$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">はじめに!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">項目の説明!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">座席監視シナリオ!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">連続稼働シナリオ!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">座席監視シナリオ!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">複数PCでの利用シナリオ!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">連続稼働シナリオ!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="247">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="2"/>
@@ -1213,6 +1217,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ST003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>1.座席監視
 1.1.座席監視システム起動
 1.1.1.カメラ1台、カメラの前に人がいる</t>
@@ -1829,6 +1837,362 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数台のPCから座席監視アプリを利用する</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2台のPCからアクセスする</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.複数PCでの利用
+1.1.座席監視システム起動
+1.1.1.PC2台、カメラ1台、カメラの前に人がいる</t>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.カメラを1台接続する
+2.カメラのデバイスインスタンスパスと監視座席名をLinkCameraAndName.jsonに記入する
+3.SeatMooonitoringAPIを開始する
+4.カメラの前に人がいる状態にする
+5.1台目のPCから座席監視アプリを起動する
+6.2台目のPCから座席監視アプリを起動する</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>両PCにアプリ画面が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.複数PCでの利用
+1.2.座席監視アプリ画面更新
+1.2.1.PC2台、カメラ1台、カメラの前に人がいる→いない</t>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.複数PCでの利用
+1.2.座席監視アプリ画面更新
+1.2.2.PC2台、カメラ1台、カメラの前に人がいない→いる</t>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>両PCにアプリ画面が表示されている</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>両PCのアプリ画面が更新される</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.カメラの前に人がいない状態にする
+2.1分間(2台目のPCの更新終了まで)待機する</t>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>プンカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.カメラの前に人がいる状態にする
+2.1分間(2台目のPCの更新終了まで)待機する</t>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>プンカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windpws10 Pro</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.20GHz以上</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+  </si>
+  <si>
+    <t>8.0GB以上</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>35.0MB以上</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>同一ネットワークに接続</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライアント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3MB以上</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>杉田</t>
+    <rPh sb="0" eb="2">
+      <t>スギタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ver.1.1で大幅な変更</t>
+    <rPh sb="8" eb="10">
+      <t>オオハバ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・2台のPCで、座席監視アプリのConfigファイルに同一の"Host"が設定されている
+・SeatMonitoringAPIのConfigファイルに"SettingFilePath"と"CascadeFilePath"が設定されている</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2636,7 +3000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2691,15 +3055,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2984,6 +3348,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -5017,7 +5384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:AC63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -6617,7 +6984,7 @@
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6633,7 +7000,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="55" t="s">
         <v>154</v>
       </c>
       <c r="C2" s="63" t="s">
@@ -6647,7 +7014,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="61"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="17" t="s">
         <v>156</v>
@@ -6657,7 +7024,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="17" t="s">
         <v>162</v>
@@ -6676,7 +7043,7 @@
       <c r="L4" s="60"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="61"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="57"/>
       <c r="D5" s="17" t="s">
         <v>163</v>
@@ -6698,7 +7065,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="61"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="61" t="s">
         <v>161</v>
       </c>
@@ -6726,7 +7093,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="61"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="64" t="s">
         <v>169</v>
       </c>
@@ -6738,7 +7105,7 @@
       <c r="H7" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="20" t="s">
         <v>164</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -6752,7 +7119,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="61"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="62" t="s">
         <v>157</v>
       </c>
@@ -6766,7 +7133,7 @@
       <c r="H8" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="20" t="s">
         <v>164</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -6780,7 +7147,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="61"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="62"/>
       <c r="D9" s="17" t="s">
         <v>159</v>
@@ -6806,52 +7173,58 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6859,9 +7232,9 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B2:B10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6869,11 +7242,123 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AEB6B5-15B7-4A3A-AF02-9E27C8ED0755}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BE21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H18"/>
+      <selection activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7104,16 +7589,24 @@
       <c r="AQ4" s="91"/>
       <c r="AR4" s="91"/>
       <c r="AS4" s="91"/>
-      <c r="AT4" s="95"/>
+      <c r="AT4" s="95" t="s">
+        <v>241</v>
+      </c>
       <c r="AU4" s="95"/>
-      <c r="AV4" s="68"/>
+      <c r="AV4" s="68">
+        <v>43873</v>
+      </c>
       <c r="AW4" s="68"/>
       <c r="AX4" s="68"/>
       <c r="AY4" s="68"/>
-      <c r="AZ4" s="73"/>
+      <c r="AZ4" s="73" t="s">
+        <v>242</v>
+      </c>
       <c r="BA4" s="74"/>
       <c r="BB4" s="75"/>
-      <c r="BC4" s="69"/>
+      <c r="BC4" s="69" t="s">
+        <v>243</v>
+      </c>
       <c r="BD4" s="69"/>
       <c r="BE4" s="69"/>
     </row>
@@ -7412,7 +7905,7 @@
       </c>
       <c r="B11" s="106"/>
       <c r="C11" s="102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11" s="103"/>
       <c r="E11" s="103"/>
@@ -7458,16 +7951,26 @@
       <c r="AI11" s="99"/>
       <c r="AJ11" s="99"/>
       <c r="AK11" s="100"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
+      <c r="AL11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN11" s="66"/>
       <c r="AO11" s="66"/>
       <c r="AP11" s="66"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
+      <c r="AQ11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS11" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="116"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="66"/>
@@ -7485,7 +7988,7 @@
       </c>
       <c r="B12" s="106"/>
       <c r="C12" s="102" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D12" s="103"/>
       <c r="E12" s="103"/>
@@ -7497,7 +8000,7 @@
       </c>
       <c r="J12" s="106"/>
       <c r="K12" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L12" s="99"/>
       <c r="M12" s="99"/>
@@ -7505,7 +8008,7 @@
       <c r="O12" s="99"/>
       <c r="P12" s="100"/>
       <c r="Q12" s="101" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R12" s="99"/>
       <c r="S12" s="99"/>
@@ -7531,16 +8034,26 @@
       <c r="AI12" s="99"/>
       <c r="AJ12" s="99"/>
       <c r="AK12" s="100"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
+      <c r="AL12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN12" s="66"/>
       <c r="AO12" s="66"/>
       <c r="AP12" s="66"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
+      <c r="AQ12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS12" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT12" s="116"/>
+      <c r="AU12" s="116"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
       <c r="AX12" s="66"/>
@@ -7558,7 +8071,7 @@
       </c>
       <c r="B13" s="106"/>
       <c r="C13" s="102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D13" s="103"/>
       <c r="E13" s="103"/>
@@ -7570,7 +8083,7 @@
       </c>
       <c r="J13" s="106"/>
       <c r="K13" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L13" s="99"/>
       <c r="M13" s="99"/>
@@ -7578,7 +8091,7 @@
       <c r="O13" s="99"/>
       <c r="P13" s="100"/>
       <c r="Q13" s="101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R13" s="99"/>
       <c r="S13" s="99"/>
@@ -7590,7 +8103,7 @@
       <c r="Y13" s="99"/>
       <c r="Z13" s="100"/>
       <c r="AA13" s="101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB13" s="99"/>
       <c r="AC13" s="99"/>
@@ -7604,16 +8117,26 @@
       <c r="AI13" s="99"/>
       <c r="AJ13" s="99"/>
       <c r="AK13" s="100"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
+      <c r="AL13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN13" s="66"/>
       <c r="AO13" s="66"/>
       <c r="AP13" s="66"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
+      <c r="AQ13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS13" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT13" s="116"/>
+      <c r="AU13" s="116"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
       <c r="AX13" s="66"/>
@@ -7631,7 +8154,7 @@
       </c>
       <c r="B14" s="106"/>
       <c r="C14" s="102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D14" s="103"/>
       <c r="E14" s="103"/>
@@ -7643,7 +8166,7 @@
       </c>
       <c r="J14" s="106"/>
       <c r="K14" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L14" s="99"/>
       <c r="M14" s="99"/>
@@ -7651,7 +8174,7 @@
       <c r="O14" s="99"/>
       <c r="P14" s="100"/>
       <c r="Q14" s="101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R14" s="99"/>
       <c r="S14" s="99"/>
@@ -7677,16 +8200,26 @@
       <c r="AI14" s="99"/>
       <c r="AJ14" s="99"/>
       <c r="AK14" s="100"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
+      <c r="AL14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN14" s="66"/>
       <c r="AO14" s="66"/>
       <c r="AP14" s="66"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
+      <c r="AQ14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS14" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT14" s="116"/>
+      <c r="AU14" s="116"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
       <c r="AX14" s="66"/>
@@ -7704,7 +8237,7 @@
       </c>
       <c r="B15" s="106"/>
       <c r="C15" s="102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D15" s="103"/>
       <c r="E15" s="103"/>
@@ -7716,7 +8249,7 @@
       </c>
       <c r="J15" s="106"/>
       <c r="K15" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L15" s="99"/>
       <c r="M15" s="99"/>
@@ -7724,7 +8257,7 @@
       <c r="O15" s="99"/>
       <c r="P15" s="100"/>
       <c r="Q15" s="101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R15" s="99"/>
       <c r="S15" s="99"/>
@@ -7750,16 +8283,26 @@
       <c r="AI15" s="99"/>
       <c r="AJ15" s="99"/>
       <c r="AK15" s="100"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
+      <c r="AL15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN15" s="66"/>
       <c r="AO15" s="66"/>
       <c r="AP15" s="66"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
+      <c r="AQ15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS15" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT15" s="116"/>
+      <c r="AU15" s="116"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
       <c r="AX15" s="66"/>
@@ -7777,7 +8320,7 @@
       </c>
       <c r="B16" s="106"/>
       <c r="C16" s="102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D16" s="103"/>
       <c r="E16" s="103"/>
@@ -7789,7 +8332,7 @@
       </c>
       <c r="J16" s="106"/>
       <c r="K16" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -7797,7 +8340,7 @@
       <c r="O16" s="99"/>
       <c r="P16" s="100"/>
       <c r="Q16" s="101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R16" s="99"/>
       <c r="S16" s="99"/>
@@ -7823,16 +8366,26 @@
       <c r="AI16" s="99"/>
       <c r="AJ16" s="99"/>
       <c r="AK16" s="100"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
+      <c r="AL16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN16" s="66"/>
       <c r="AO16" s="66"/>
       <c r="AP16" s="66"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
+      <c r="AQ16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS16" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT16" s="116"/>
+      <c r="AU16" s="116"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
       <c r="AX16" s="66"/>
@@ -7850,7 +8403,7 @@
       </c>
       <c r="B17" s="106"/>
       <c r="C17" s="102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D17" s="103"/>
       <c r="E17" s="103"/>
@@ -7862,7 +8415,7 @@
       </c>
       <c r="J17" s="106"/>
       <c r="K17" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L17" s="99"/>
       <c r="M17" s="99"/>
@@ -7870,7 +8423,7 @@
       <c r="O17" s="99"/>
       <c r="P17" s="100"/>
       <c r="Q17" s="101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R17" s="99"/>
       <c r="S17" s="99"/>
@@ -7896,16 +8449,26 @@
       <c r="AI17" s="99"/>
       <c r="AJ17" s="99"/>
       <c r="AK17" s="100"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
+      <c r="AL17" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN17" s="66"/>
       <c r="AO17" s="66"/>
       <c r="AP17" s="66"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
+      <c r="AQ17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS17" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT17" s="116"/>
+      <c r="AU17" s="116"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
       <c r="AX17" s="66"/>
@@ -7923,7 +8486,7 @@
       </c>
       <c r="B18" s="106"/>
       <c r="C18" s="102" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D18" s="103"/>
       <c r="E18" s="103"/>
@@ -7935,7 +8498,7 @@
       </c>
       <c r="J18" s="106"/>
       <c r="K18" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L18" s="99"/>
       <c r="M18" s="99"/>
@@ -7943,7 +8506,7 @@
       <c r="O18" s="99"/>
       <c r="P18" s="100"/>
       <c r="Q18" s="101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R18" s="99"/>
       <c r="S18" s="99"/>
@@ -7969,16 +8532,26 @@
       <c r="AI18" s="99"/>
       <c r="AJ18" s="99"/>
       <c r="AK18" s="100"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
+      <c r="AL18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN18" s="66"/>
       <c r="AO18" s="66"/>
       <c r="AP18" s="66"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
+      <c r="AQ18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS18" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT18" s="116"/>
+      <c r="AU18" s="116"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="66"/>
@@ -7996,7 +8569,7 @@
       </c>
       <c r="B19" s="106"/>
       <c r="C19" s="102" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" s="103"/>
       <c r="E19" s="103"/>
@@ -8008,7 +8581,7 @@
       </c>
       <c r="J19" s="106"/>
       <c r="K19" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" s="99"/>
       <c r="M19" s="99"/>
@@ -8016,7 +8589,7 @@
       <c r="O19" s="99"/>
       <c r="P19" s="100"/>
       <c r="Q19" s="101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R19" s="99"/>
       <c r="S19" s="99"/>
@@ -8028,7 +8601,7 @@
       <c r="Y19" s="99"/>
       <c r="Z19" s="100"/>
       <c r="AA19" s="101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB19" s="99"/>
       <c r="AC19" s="99"/>
@@ -8042,16 +8615,26 @@
       <c r="AI19" s="99"/>
       <c r="AJ19" s="99"/>
       <c r="AK19" s="100"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
+      <c r="AL19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN19" s="66"/>
       <c r="AO19" s="66"/>
       <c r="AP19" s="66"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
+      <c r="AQ19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS19" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT19" s="116"/>
+      <c r="AU19" s="116"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
       <c r="AX19" s="66"/>
@@ -8069,7 +8652,7 @@
       </c>
       <c r="B20" s="106"/>
       <c r="C20" s="102" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D20" s="103"/>
       <c r="E20" s="103"/>
@@ -8081,7 +8664,7 @@
       </c>
       <c r="J20" s="106"/>
       <c r="K20" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" s="99"/>
       <c r="M20" s="99"/>
@@ -8089,7 +8672,7 @@
       <c r="O20" s="99"/>
       <c r="P20" s="100"/>
       <c r="Q20" s="101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R20" s="99"/>
       <c r="S20" s="99"/>
@@ -8115,16 +8698,26 @@
       <c r="AI20" s="99"/>
       <c r="AJ20" s="99"/>
       <c r="AK20" s="100"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
+      <c r="AL20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN20" s="66"/>
       <c r="AO20" s="66"/>
       <c r="AP20" s="66"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
+      <c r="AQ20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS20" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT20" s="116"/>
+      <c r="AU20" s="116"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
       <c r="AX20" s="66"/>
@@ -8142,7 +8735,7 @@
       </c>
       <c r="B21" s="106"/>
       <c r="C21" s="102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D21" s="103"/>
       <c r="E21" s="103"/>
@@ -8154,7 +8747,7 @@
       </c>
       <c r="J21" s="106"/>
       <c r="K21" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L21" s="99"/>
       <c r="M21" s="99"/>
@@ -8162,7 +8755,7 @@
       <c r="O21" s="99"/>
       <c r="P21" s="100"/>
       <c r="Q21" s="101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R21" s="99"/>
       <c r="S21" s="99"/>
@@ -8188,16 +8781,26 @@
       <c r="AI21" s="99"/>
       <c r="AJ21" s="99"/>
       <c r="AK21" s="100"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
+      <c r="AL21" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="AN21" s="66"/>
       <c r="AO21" s="66"/>
       <c r="AP21" s="66"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
+      <c r="AQ21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS21" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT21" s="116"/>
+      <c r="AU21" s="116"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
       <c r="AX21" s="66"/>
@@ -8396,7 +8999,7 @@
       <formula1>"HW設定確認テスト,HW動作確認テスト,MW設定確認テスト,MW動作確認テスト,疎通テスト,入出力バリエーションテスト,制御パステスト,静的解析,コンポーネント統合テスト,システム統合テスト,機能テスト,業務シナリオテスト,セキュリティテスト,ドキュメントテスト,サイクルテスト,ユーザビリティテスト,信頼性テスト,リカバリテスト,耐障害性テスト,性能テスト,ストレステスト,ボリュームテスト,ストレージテスト,監視テスト,構成テスト,インストールテスト"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="K2:O2" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL11:AM21 AV11:AW21 AQ11:AR21 BA11:BB21" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA11:BB21 AV11:AW21 AL11:AM21 AQ11:AR21" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S2:W2" xr:uid="{00000000-0002-0000-0400-000004000000}">
@@ -8412,12 +9015,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BCB7C4-29F7-4E87-8E85-5040811249E1}">
   <dimension ref="A1:BE12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12:AP12"/>
+      <selection activeCell="AT3" sqref="AT3:BE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8576,22 +9179,22 @@
       <c r="AR3" s="91"/>
       <c r="AS3" s="91"/>
       <c r="AT3" s="95" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="AU3" s="95"/>
       <c r="AV3" s="68">
-        <v>43868</v>
+        <v>43873</v>
       </c>
       <c r="AW3" s="68"/>
       <c r="AX3" s="68"/>
       <c r="AY3" s="68"/>
       <c r="AZ3" s="73" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="BA3" s="74"/>
       <c r="BB3" s="75"/>
       <c r="BC3" s="69" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="BD3" s="69"/>
       <c r="BE3" s="69"/>
@@ -8956,7 +9559,7 @@
       </c>
       <c r="B11" s="106"/>
       <c r="C11" s="102" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D11" s="103"/>
       <c r="E11" s="103"/>
@@ -9033,7 +9636,7 @@
       </c>
       <c r="B12" s="106"/>
       <c r="C12" s="102" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D12" s="103"/>
       <c r="E12" s="103"/>
@@ -9045,7 +9648,7 @@
       </c>
       <c r="J12" s="106"/>
       <c r="K12" s="101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L12" s="99"/>
       <c r="M12" s="99"/>
@@ -9053,7 +9656,7 @@
       <c r="O12" s="99"/>
       <c r="P12" s="100"/>
       <c r="Q12" s="101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R12" s="99"/>
       <c r="S12" s="99"/>
@@ -9197,6 +9800,890 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:J12" xr:uid="{497D01DD-3370-4250-9D66-E5B8C8E7E898}">
       <formula1>"正常系,異常系"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D593EAE9-A880-42C3-8D7C-2DF28FC9513C}">
+  <dimension ref="A1:BE13"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:AN6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="36" width="3.625" style="1" customWidth="1"/>
+    <col min="37" max="39" width="3.875" style="1" customWidth="1"/>
+    <col min="40" max="42" width="3.625" style="1" customWidth="1"/>
+    <col min="43" max="44" width="3.875" style="1" customWidth="1"/>
+    <col min="45" max="47" width="3.625" style="1" customWidth="1"/>
+    <col min="48" max="49" width="3.875" style="1" customWidth="1"/>
+    <col min="50" max="52" width="3.625" style="1" customWidth="1"/>
+    <col min="53" max="54" width="3.875" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="A2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="A3" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="68">
+        <v>43873</v>
+      </c>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+    </row>
+    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="91"/>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="69"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="68"/>
+      <c r="AW5" s="68"/>
+      <c r="AX5" s="68"/>
+      <c r="AY5" s="68"/>
+      <c r="AZ5" s="73"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="69"/>
+      <c r="BD5" s="69"/>
+      <c r="BE5" s="69"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ6" s="91"/>
+      <c r="AR6" s="91"/>
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="73"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="75"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+    </row>
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="108"/>
+      <c r="C9" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="87"/>
+      <c r="K9" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="112"/>
+      <c r="AL9" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW9" s="67"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB9" s="67"/>
+      <c r="BC9" s="67"/>
+      <c r="BD9" s="67"/>
+      <c r="BE9" s="67"/>
+    </row>
+    <row r="10" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN10" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="67"/>
+      <c r="AQ10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS10" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX10" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY10" s="67"/>
+      <c r="AZ10" s="67"/>
+      <c r="BA10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC10" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD10" s="67"/>
+      <c r="BE10" s="67"/>
+    </row>
+    <row r="11" spans="1:57" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="106"/>
+      <c r="C11" s="102" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="106"/>
+      <c r="K11" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="101" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="100"/>
+      <c r="AL11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="66"/>
+      <c r="AY11" s="66"/>
+      <c r="AZ11" s="66"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="66"/>
+      <c r="BD11" s="66"/>
+      <c r="BE11" s="66"/>
+    </row>
+    <row r="12" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="106"/>
+      <c r="K12" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="100"/>
+      <c r="AA12" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="100"/>
+      <c r="AL12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="66"/>
+      <c r="BD12" s="66"/>
+      <c r="BE12" s="66"/>
+    </row>
+    <row r="13" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="106"/>
+      <c r="K13" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="100"/>
+      <c r="AA13" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="100"/>
+      <c r="AL13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="66"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="66"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="66"/>
+      <c r="BD13" s="66"/>
+      <c r="BE13" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="87">
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AN13:AP13"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="AA13:AF13"/>
+    <mergeCell ref="AA12:AF12"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="AA11:AF11"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="BC6:BE6"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:P10"/>
+    <mergeCell ref="Q9:Z10"/>
+    <mergeCell ref="AA9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="D4:AN6"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AV6:AY6"/>
+    <mergeCell ref="AZ6:BB6"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AN3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AN2"/>
+    <mergeCell ref="AO2:AO6"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:W2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:J13" xr:uid="{24F43D4F-BB1B-4959-88FE-780BEBDDD30C}">
+      <formula1>"正常系,異常系"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AA2:AN2" xr:uid="{8492DEFB-FE75-4E2C-8DA4-3822299F38DE}">
+      <formula1>"HW設定確認テスト,HW動作確認テスト,MW設定確認テスト,MW動作確認テスト,疎通テスト,入出力バリエーションテスト,制御パステスト,静的解析,コンポーネント統合テスト,システム統合テスト,機能テスト,業務シナリオテスト,セキュリティテスト,ドキュメントテスト,サイクルテスト,ユーザビリティテスト,信頼性テスト,リカバリテスト,耐障害性テスト,性能テスト,ストレステスト,ボリュームテスト,ストレージテスト,監視テスト,構成テスト,インストールテスト"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="K2:O2" xr:uid="{52E54BCD-226D-4A4E-B965-A525819AC783}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ11:AR13 AV11:AW13 AL11:AM13 BA11:BB13" xr:uid="{01A4A7A2-85EF-44EB-927F-7DC790D9163C}">
+      <formula1>"OK,NG,-"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S2:W2" xr:uid="{D1428BD1-19F0-4FFB-9C94-E8716712D108}">
+      <formula1>"-,NFR-F-00n,NFR-U-00n,NFR-R-00n,NFR-E-00n,NFR-M-00n,NFR-P-00n"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/doc/システムテスト/システムテスト仕様書.xlsx
+++ b/doc/システムテスト/システムテスト仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99401815-047C-4C0F-875C-13FDEB9B35EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BB268-495A-484D-BA35-CFB6CB8CFC53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="9" r:id="rId1"/>
@@ -7018,8 +7018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307CAD-A28E-4FDA-8070-6667901C4CBE}">
   <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7395,7 +7395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>

--- a/doc/システムテスト/システムテスト仕様書.xlsx
+++ b/doc/システムテスト/システムテスト仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B2C338-94E9-403A-B759-50BEB3209EA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AECDF-6B3B-42C3-970B-FDF7EDF117E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_Toc303079182" localSheetId="1">項目の説明!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">はじめに!$A$2:$AD$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">項目の説明!$A$2:$AD$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">座席監視シナリオ!$A$2:$BE$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">座席監視シナリオ!$A$2:$BE$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">複数PCでの利用シナリオ!$A$2:$BE$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">連続稼働シナリオ!$A$2:$BE$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">はじめに!$1:$1</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="294">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="2"/>
@@ -1019,23 +1019,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・座席監視アプリのConfigファイルに"Host"が設定されている
-・SeatMonitoringAPIのConfigファイルに"SettingFilePath"と"CascadeFilePath"が設定されている</t>
-    <rPh sb="1" eb="3">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.カメラを1台接続する
 2.カメラのデバイスインスタンスパスと監視座席名をLinkCameraAndName.jsonに記入する
 3.SeatMooonitoringAPIを開始する
@@ -1100,16 +1083,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アプリ画面が更新される</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>監視結果リストの要素数が1
 名前が設定の通り
 アイコンが在席アイコン
@@ -1134,25 +1107,6 @@
   </si>
   <si>
     <t>監視結果リストの要素数が1
-名前が設定の通り
-アイコンが状態取得失敗アイコン
-ツールチップが不明</t>
-    <rPh sb="28" eb="30">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>監視結果リストの要素数が1
 名前が"サーバ接続失敗"
 アイコンがサーバ接続エラーアイコン
 ツールチップがサーバ接続エラー</t>
@@ -1264,186 +1218,6 @@
     <t>1.座席監視
 1.2.座席監視アプリ画面更新
 1.2.1.カメラ1台、カメラの前に人がいる→いない</t>
-    <rPh sb="2" eb="4">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.座席監視
-1.2.座席監視アプリ画面更新
-1.2.3.カメラ1台、カメラの前に人がいない→いる</t>
-    <rPh sb="2" eb="4">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.座席監視
-1.2.座席監視アプリ画面更新
-1.2.4.カメラ1台、カメラの前に人がいる→カメラが接続されていない</t>
-    <rPh sb="2" eb="4">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.座席監視
-1.2.座席監視アプリ画面更新
-1.2.5.カメラ1台、カメラが接続されていない→カメラの前に人がいる</t>
-    <rPh sb="2" eb="4">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.座席監視
-1.2.座席監視アプリ画面更新
-1.2.6.カメラ1台、カメラの前に人がいる→SeatMonitoringAPIが停止している</t>
-    <rPh sb="2" eb="4">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.座席監視
-1.2.座席監視アプリ画面更新
-1.2.7.カメラ1台、SeatMonitoringAPIが停止している→カメラの前に人がいる</t>
-    <rPh sb="2" eb="4">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.座席監視
-1.2.座席監視アプリ画面更新
-1.2.8.カメラ1台、カメラの前に人がいる→いる</t>
     <rPh sb="2" eb="4">
       <t>ザセキ</t>
     </rPh>
@@ -1819,16 +1593,6 @@
     </rPh>
     <rPh sb="107" eb="109">
       <t>タイキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アプリ画面が更新されない</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2166,7 +1930,118 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>〇通知有</t>
+    <rPh sb="1" eb="3">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇通知無</t>
+    <rPh sb="1" eb="3">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人がいる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通知の有無と内容も同時に確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ画面が更新される
+在席状態の通知が送信される</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが在席アイコン
+ツールチップが在席
+通知の内容が、在席アイコンで名前が設定の通り</t>
+    <rPh sb="45" eb="47">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・座席監視アプリのConfigファイルに"Host"が設定されている
+・座席監視アプリのConfigファイルに"IsNotify"が"true"に設定されている
+・SeatMonitoringAPIのConfigファイルに"SettingFilePath"と"CascadeFilePath"が設定されている</t>
+    <rPh sb="1" eb="3">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>・2台のPCで、座席監視アプリのConfigファイルに同一の"Host"が設定されている
+・座席監視アプリのConfigファイルに"IsNotify"が"true"に設定されている
 ・SeatMonitoringAPIのConfigファイルに"SettingFilePath"と"CascadeFilePath"が設定されている</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2183,51 +2058,1040 @@
     <rPh sb="37" eb="39">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="111" eb="113">
+    <rPh sb="157" eb="159">
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇通知有</t>
-    <rPh sb="1" eb="3">
+    <t>両PCのアプリ画面が更新される
+両PCに離席の通知が送信される</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リセキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>ツウチ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>アリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇通知無</t>
-    <rPh sb="1" eb="3">
+    <rPh sb="26" eb="28">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが離席アイコン
+ツールチップが離席
+通知の内容が、離席アイコンで名前が設定の通り</t>
+    <rPh sb="28" eb="30">
+      <t>リセキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>リセキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
       <t>ツウチ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人がいる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>通知の有無と内容も同時に確認する</t>
+    <rPh sb="48" eb="50">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>リセキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ver.1.2で通知の評価を追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>杉田</t>
     <rPh sb="0" eb="2">
+      <t>スギタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Setup.exeが実行済みである
+・座席監視アプリのConfigファイルに"Host"が設定されている
+・座席監視アプリのConfigファイルに"IsNotify"が"true"に設定されている
+・SeatMonitoringAPIのConfigファイルに"SettingFilePath"と"CascadeFilePath"が設定されている</t>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ画面が更新される
+離席の通知が送信される</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ツウチ</t>
     </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ画面が更新される
+通知が送信されない</t>
     <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ画面が更新される
+サーバ接続エラー復帰の通知が送信される</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ画面が更新される
+サーバ接続エラーの通知が送信される</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ver.1.2で追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが状態取得失敗アイコン
+ツールチップが状態取得失敗
+通知の内容が、状態取得失敗アイコンで名前が設定の通り</t>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="66">
+      <t>ジョウタイシュトクシッパイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ画面が更新される
+状態取得失敗の通知が送信されるの通知が送信される</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="18">
+      <t>ジョウタイシュトクシッパイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.3.カメラ1台、カメラの前に人がいない→カメラが接続されていない</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.カメラが接続されていない状態にする
+2.1分間待機する</t>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>プンカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.SeatMonitoringAPIが停止させる
+2.1分間待機する</t>
+    <rPh sb="29" eb="31">
+      <t>プンカン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.SeatMonitoringAPIを開始させる
+2.カメラの前に人がいない状態にする
+3.1分間待機する</t>
+    <rPh sb="20" eb="22">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>プンカン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.解除したカメラを接続する
+2.カメラの前に人がいない状態にする
+3.1分間待機する</t>
+    <rPh sb="2" eb="4">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>プンカン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.SeatMonitoringAPIを開始させる
+2.カメラの接続を解除する
+3.1分間待機する</t>
+    <rPh sb="20" eb="22">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>プンカン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ画面が更新される
+状態取得失敗の通知が送信される</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が"サーバ接続失敗"
+アイコンがサーバ接続エラーアイコン
+ツールチップがサーバ接続エラー
+通知の内容が、サーバ接続エラーアイコンでサーバ接続エラーのメッセージ</t>
+    <rPh sb="21" eb="23">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが離席アイコン
+ツールチップが離席
+通知の内容が、サーバ接続エラー復帰アイコンでサーバ接続エラー復帰のメッセージ</t>
+    <rPh sb="28" eb="30">
+      <t>リセキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>リセキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが状態取得失敗アイコン
+ツールチップが状態取得失敗
+通知の内容が、サーバ接続エラー復帰アイコンでサーバ接続エラー復帰のメッセージ</t>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">監視結果リストの要素数が1
+名前が設定の通り
+アイコンが状態取得失敗アイコン
+ツールチップが状態取得失敗
+</t>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ画面が更新される
+在席の通知が送信される</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が"サーバ接続失敗"
+アイコンがサーバ接続エラーアイコン
+ツールチップがサーバ接続エラー
+通知の内容が、サーバ接続エラーアイコンでサーバ接続エラーのメッセージ</t>
+    <rPh sb="21" eb="23">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが離席アイコン
+ツールチップが離席
+通知の内容が、離席アイコンで名前が設定の通り</t>
+    <rPh sb="28" eb="30">
+      <t>リセキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>リセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが在席アイコン
+ツールチップが在席
+通知の内容が、在席アイコンで名前が設定の通り</t>
+    <rPh sb="52" eb="54">
+      <t>ザイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが在席アイコン
+ツールチップが在席
+通知の内容が、在席アイコンで名前が設定の通り</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが在席アイコン
+ツールチップが在席
+通知の内容が、サーバ接続エラー復帰アイコンでサーバ接続エラー復帰のメッセージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.4.カメラ1台、カメラが接続されていない→SeatMonitoringAPIが停止している</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.5.カメラ1台、SeatMonitoringAPIが停止している→カメラの前に人がいない</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.6.カメラ1台、カメラの前に人がいない→SeatMonitoringAPIが停止している</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.7.カメラ1台、SeatMonitoringAPIが停止している→カメラが接続されていない</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.8.カメラ1台、カメラが接続されていない→カメラの前に人がいない</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.9.カメラ1台、カメラの前に人がいない→いる</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.10.カメラ1台、カメラの前に人がいる→カメラが接続されていない</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.11.カメラ1台、カメラが接続されていない→カメラが接続されていない</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.12.カメラ1台、カメラが接続されていない→カメラの前に人がいる</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.13.カメラ1台、カメラの前に人がいる→SeatMonitoringAPIが停止している</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.14.カメラ1台、SeatMonitoringAPIが停止している→SeatMonitoringAPIが停止している</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.15.カメラ1台、SeatMonitoringAPIが停止している→カメラの前に人がいる</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.座席監視
+1.2.座席監視アプリ画面更新
+1.2.16.カメラ1台、カメラの前に人がいる→いる</t>
+    <rPh sb="2" eb="4">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※各テストで通知の有無とその内容を評価する</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>ウム</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="14" eb="16">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3240,12 +4104,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -3273,54 +4194,6 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="28" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
@@ -3333,15 +4206,6 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3351,6 +4215,12 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3359,12 +4229,6 @@
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3873,12 +4737,12 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.125" style="1"/>
+    <col min="1" max="16384" width="4.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3943,7 +4807,7 @@
       <c r="AC3" s="9"/>
       <c r="AD3" s="10"/>
     </row>
-    <row r="4" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4" s="11" t="s">
         <v>40</v>
@@ -4032,7 +4896,7 @@
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
     </row>
-    <row r="7" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -4065,7 +4929,7 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="D8" s="6" t="s">
@@ -4097,7 +4961,7 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="E9" s="11"/>
@@ -4126,7 +4990,7 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
     </row>
-    <row r="10" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
@@ -4159,7 +5023,7 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -4194,7 +5058,7 @@
       <c r="AB11" s="27"/>
       <c r="AD11" s="11"/>
     </row>
-    <row r="12" spans="1:30" s="6" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" s="6" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -4229,7 +5093,7 @@
       <c r="AB12" s="33"/>
       <c r="AD12" s="11"/>
     </row>
-    <row r="13" spans="1:30" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -4265,7 +5129,7 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
     </row>
-    <row r="14" spans="1:30" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -4301,7 +5165,7 @@
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -4337,7 +5201,7 @@
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" spans="1:30" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4373,7 +5237,7 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
     </row>
-    <row r="17" spans="1:30" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -4409,7 +5273,7 @@
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="1:30" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4445,7 +5309,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4481,7 +5345,7 @@
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -4517,7 +5381,7 @@
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
     </row>
-    <row r="21" spans="1:30" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4553,7 +5417,7 @@
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
     </row>
-    <row r="22" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4589,7 +5453,7 @@
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
     </row>
-    <row r="23" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4625,7 +5489,7 @@
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
     </row>
-    <row r="24" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:30" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -4661,7 +5525,7 @@
       <c r="AC24" s="13"/>
       <c r="AD24" s="13"/>
     </row>
-    <row r="25" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4697,7 +5561,7 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
     </row>
-    <row r="26" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4733,7 +5597,7 @@
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
     </row>
-    <row r="27" spans="1:30" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:30" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -4769,7 +5633,7 @@
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
     </row>
-    <row r="28" spans="1:30" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4805,7 +5669,7 @@
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
     </row>
-    <row r="29" spans="1:30" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -4841,7 +5705,7 @@
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
     </row>
-    <row r="30" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4877,7 +5741,7 @@
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
     </row>
-    <row r="31" spans="1:30" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4913,7 +5777,7 @@
       <c r="AC31" s="13"/>
       <c r="AD31" s="13"/>
     </row>
-    <row r="32" spans="1:30" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:30" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4949,7 +5813,7 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
     </row>
-    <row r="33" spans="1:30" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:30" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -4985,7 +5849,7 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
     </row>
-    <row r="34" spans="1:30" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:30" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5021,7 +5885,7 @@
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
     </row>
-    <row r="35" spans="1:30" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:30" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5057,7 +5921,7 @@
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
     </row>
-    <row r="36" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -5093,7 +5957,7 @@
       <c r="AC36" s="13"/>
       <c r="AD36" s="13"/>
     </row>
-    <row r="37" spans="1:30" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:30" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5129,7 +5993,7 @@
       <c r="AC37" s="13"/>
       <c r="AD37" s="13"/>
     </row>
-    <row r="38" spans="1:30" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:30" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -5165,7 +6029,7 @@
       <c r="AC38" s="13"/>
       <c r="AD38" s="13"/>
     </row>
-    <row r="39" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5196,7 +6060,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
     </row>
-    <row r="40" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
@@ -5229,7 +6093,7 @@
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
     </row>
-    <row r="41" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5262,7 +6126,7 @@
       <c r="AC41" s="11"/>
       <c r="AD41" s="11"/>
     </row>
-    <row r="42" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5295,7 +6159,7 @@
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
     </row>
-    <row r="43" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -5322,7 +6186,7 @@
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
     </row>
-    <row r="44" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:30" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -5429,12 +6293,12 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.125" style="1"/>
+    <col min="1" max="16384" width="4.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:29" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -5461,15 +6325,15 @@
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>46</v>
       </c>
@@ -5505,7 +6369,7 @@
       <c r="Z16" s="35"/>
       <c r="AA16" s="35"/>
     </row>
-    <row r="17" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="46">
         <v>1</v>
       </c>
@@ -5541,7 +6405,7 @@
       <c r="Z17" s="37"/>
       <c r="AA17" s="38"/>
     </row>
-    <row r="18" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -5569,7 +6433,7 @@
       <c r="Z18" s="40"/>
       <c r="AA18" s="41"/>
     </row>
-    <row r="19" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="46"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -5597,7 +6461,7 @@
       <c r="Z19" s="40"/>
       <c r="AA19" s="41"/>
     </row>
-    <row r="20" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="46"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -5625,7 +6489,7 @@
       <c r="Z20" s="40"/>
       <c r="AA20" s="41"/>
     </row>
-    <row r="21" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="46"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
@@ -5653,7 +6517,7 @@
       <c r="Z21" s="43"/>
       <c r="AA21" s="44"/>
     </row>
-    <row r="22" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="46">
         <v>2</v>
       </c>
@@ -5689,7 +6553,7 @@
       <c r="Z22" s="37"/>
       <c r="AA22" s="38"/>
     </row>
-    <row r="23" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="46"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -5717,7 +6581,7 @@
       <c r="Z23" s="43"/>
       <c r="AA23" s="44"/>
     </row>
-    <row r="24" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="46">
         <v>3</v>
       </c>
@@ -5753,7 +6617,7 @@
       <c r="Z24" s="37"/>
       <c r="AA24" s="38"/>
     </row>
-    <row r="25" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="46"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -5781,7 +6645,7 @@
       <c r="Z25" s="40"/>
       <c r="AA25" s="41"/>
     </row>
-    <row r="26" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="46"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -5809,7 +6673,7 @@
       <c r="Z26" s="40"/>
       <c r="AA26" s="41"/>
     </row>
-    <row r="27" spans="2:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="46"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -5837,7 +6701,7 @@
       <c r="Z27" s="43"/>
       <c r="AA27" s="44"/>
     </row>
-    <row r="28" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
         <v>4</v>
       </c>
@@ -5873,7 +6737,7 @@
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
     </row>
-    <row r="29" spans="2:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="46">
         <v>5</v>
       </c>
@@ -5907,7 +6771,7 @@
       <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
     </row>
-    <row r="30" spans="2:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="46"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -5937,7 +6801,7 @@
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
     </row>
-    <row r="31" spans="2:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16">
         <v>6</v>
       </c>
@@ -5971,7 +6835,7 @@
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
     </row>
-    <row r="32" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="46">
         <v>7</v>
       </c>
@@ -6005,7 +6869,7 @@
       <c r="Z32" s="37"/>
       <c r="AA32" s="38"/>
     </row>
-    <row r="33" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="46"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -6033,7 +6897,7 @@
       <c r="Z33" s="40"/>
       <c r="AA33" s="41"/>
     </row>
-    <row r="34" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="46"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -6061,7 +6925,7 @@
       <c r="Z34" s="40"/>
       <c r="AA34" s="41"/>
     </row>
-    <row r="35" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="46"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -6089,7 +6953,7 @@
       <c r="Z35" s="40"/>
       <c r="AA35" s="41"/>
     </row>
-    <row r="36" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="46"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
@@ -6117,7 +6981,7 @@
       <c r="Z36" s="40"/>
       <c r="AA36" s="41"/>
     </row>
-    <row r="37" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="46"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -6145,7 +7009,7 @@
       <c r="Z37" s="40"/>
       <c r="AA37" s="41"/>
     </row>
-    <row r="38" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="46"/>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -6173,7 +7037,7 @@
       <c r="Z38" s="40"/>
       <c r="AA38" s="41"/>
     </row>
-    <row r="39" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="46"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -6201,7 +7065,7 @@
       <c r="Z39" s="40"/>
       <c r="AA39" s="41"/>
     </row>
-    <row r="40" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="46"/>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
@@ -6229,7 +7093,7 @@
       <c r="Z40" s="40"/>
       <c r="AA40" s="41"/>
     </row>
-    <row r="41" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="46"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
@@ -6257,7 +7121,7 @@
       <c r="Z41" s="40"/>
       <c r="AA41" s="41"/>
     </row>
-    <row r="42" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="46"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
@@ -6285,7 +7149,7 @@
       <c r="Z42" s="40"/>
       <c r="AA42" s="41"/>
     </row>
-    <row r="43" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="46"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
@@ -6313,7 +7177,7 @@
       <c r="Z43" s="43"/>
       <c r="AA43" s="44"/>
     </row>
-    <row r="44" spans="2:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:27" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="16">
         <v>8</v>
       </c>
@@ -6347,7 +7211,7 @@
       <c r="Z44" s="37"/>
       <c r="AA44" s="38"/>
     </row>
-    <row r="45" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16">
         <v>9</v>
       </c>
@@ -6381,7 +7245,7 @@
       <c r="Z45" s="37"/>
       <c r="AA45" s="38"/>
     </row>
-    <row r="46" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16">
         <v>10</v>
       </c>
@@ -6415,7 +7279,7 @@
       <c r="Z46" s="45"/>
       <c r="AA46" s="45"/>
     </row>
-    <row r="47" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16">
         <v>11</v>
       </c>
@@ -6449,7 +7313,7 @@
       <c r="Z47" s="45"/>
       <c r="AA47" s="45"/>
     </row>
-    <row r="48" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="46">
         <v>12</v>
       </c>
@@ -6483,7 +7347,7 @@
       <c r="Z48" s="37"/>
       <c r="AA48" s="38"/>
     </row>
-    <row r="49" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="46"/>
       <c r="C49" s="42"/>
       <c r="D49" s="43"/>
@@ -6511,7 +7375,7 @@
       <c r="Z49" s="43"/>
       <c r="AA49" s="44"/>
     </row>
-    <row r="50" spans="2:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
         <v>13</v>
       </c>
@@ -6547,7 +7411,7 @@
       <c r="Z50" s="45"/>
       <c r="AA50" s="45"/>
     </row>
-    <row r="51" spans="2:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16">
         <v>14</v>
       </c>
@@ -6583,7 +7447,7 @@
       <c r="Z51" s="45"/>
       <c r="AA51" s="45"/>
     </row>
-    <row r="52" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="46">
         <v>15</v>
       </c>
@@ -6617,7 +7481,7 @@
       <c r="Z52" s="37"/>
       <c r="AA52" s="38"/>
     </row>
-    <row r="53" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="46"/>
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
@@ -6645,7 +7509,7 @@
       <c r="Z53" s="40"/>
       <c r="AA53" s="41"/>
     </row>
-    <row r="54" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="46"/>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
@@ -6673,7 +7537,7 @@
       <c r="Z54" s="40"/>
       <c r="AA54" s="41"/>
     </row>
-    <row r="55" spans="2:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="46"/>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
@@ -6701,7 +7565,7 @@
       <c r="Z55" s="43"/>
       <c r="AA55" s="44"/>
     </row>
-    <row r="56" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="46">
         <v>16</v>
       </c>
@@ -6735,7 +7599,7 @@
       <c r="Z56" s="37"/>
       <c r="AA56" s="38"/>
     </row>
-    <row r="57" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="46"/>
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
@@ -6763,7 +7627,7 @@
       <c r="Z57" s="40"/>
       <c r="AA57" s="41"/>
     </row>
-    <row r="58" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="46"/>
       <c r="C58" s="45"/>
       <c r="D58" s="45"/>
@@ -6791,7 +7655,7 @@
       <c r="Z58" s="40"/>
       <c r="AA58" s="41"/>
     </row>
-    <row r="59" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="46"/>
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
@@ -6819,7 +7683,7 @@
       <c r="Z59" s="43"/>
       <c r="AA59" s="44"/>
     </row>
-    <row r="60" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="46">
         <v>17</v>
       </c>
@@ -6853,7 +7717,7 @@
       <c r="Z60" s="49"/>
       <c r="AA60" s="50"/>
     </row>
-    <row r="61" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="46"/>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
@@ -6881,7 +7745,7 @@
       <c r="Z61" s="52"/>
       <c r="AA61" s="53"/>
     </row>
-    <row r="62" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="46"/>
       <c r="C62" s="45"/>
       <c r="D62" s="45"/>
@@ -6909,7 +7773,7 @@
       <c r="Z62" s="52"/>
       <c r="AA62" s="53"/>
     </row>
-    <row r="63" spans="2:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="46"/>
       <c r="C63" s="45"/>
       <c r="D63" s="45"/>
@@ -7025,22 +7889,22 @@
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.25" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="7" max="7" width="2.75" customWidth="1"/>
-    <col min="8" max="8" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="57" t="s">
         <v>154</v>
       </c>
@@ -7054,7 +7918,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="17" t="s">
@@ -7064,7 +7928,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
       <c r="D4" s="17" t="s">
@@ -7083,7 +7947,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="62"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="58"/>
       <c r="C5" s="59"/>
       <c r="D5" s="17" t="s">
@@ -7093,7 +7957,7 @@
         <v>160</v>
       </c>
       <c r="H5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>155</v>
@@ -7108,7 +7972,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="58"/>
       <c r="C6" s="63" t="s">
         <v>161</v>
@@ -7121,22 +7985,22 @@
         <v>164</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="58"/>
       <c r="C7" s="66" t="s">
         <v>167</v>
@@ -7150,19 +8014,19 @@
         <v>156</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="58"/>
       <c r="C8" s="64" t="s">
         <v>157</v>
@@ -7178,19 +8042,19 @@
         <v>162</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="58"/>
       <c r="C9" s="64"/>
       <c r="D9" s="17" t="s">
@@ -7204,66 +8068,71 @@
         <v>163</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
       <c r="C10" s="18" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -7294,102 +8163,102 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="17" t="s">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7400,422 +8269,430 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BE21"/>
+  <dimension ref="A1:BE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BK12" sqref="BK12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="BC6" sqref="BC6:BE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="36" width="3.625" style="1" customWidth="1"/>
-    <col min="37" max="39" width="3.875" style="1" customWidth="1"/>
-    <col min="40" max="42" width="3.625" style="1" customWidth="1"/>
-    <col min="43" max="44" width="3.875" style="1" customWidth="1"/>
-    <col min="45" max="47" width="3.625" style="1" customWidth="1"/>
-    <col min="48" max="49" width="3.875" style="1" customWidth="1"/>
-    <col min="50" max="52" width="3.625" style="1" customWidth="1"/>
-    <col min="53" max="54" width="3.875" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="3.625" style="1"/>
+    <col min="1" max="36" width="3.6640625" style="1" customWidth="1"/>
+    <col min="37" max="39" width="3.88671875" style="1" customWidth="1"/>
+    <col min="40" max="42" width="3.6640625" style="1" customWidth="1"/>
+    <col min="43" max="44" width="3.88671875" style="1" customWidth="1"/>
+    <col min="45" max="47" width="3.6640625" style="1" customWidth="1"/>
+    <col min="48" max="49" width="3.88671875" style="1" customWidth="1"/>
+    <col min="50" max="52" width="3.6640625" style="1" customWidth="1"/>
+    <col min="53" max="54" width="3.88671875" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="84" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="83" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="99" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="83" t="s">
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="99" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="83" t="s">
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="84" t="s">
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="95" t="s">
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="69" t="s">
+      <c r="AP2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69" t="s">
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="72" t="s">
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="69" t="s">
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="77"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="94" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="70">
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="89">
         <v>43868</v>
       </c>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-    </row>
-    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="83" t="s">
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89"/>
+      <c r="AZ3" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+    </row>
+    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="94" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="70">
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="89">
         <v>43873</v>
       </c>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="96"/>
-      <c r="AP5" s="94" t="s">
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="71"/>
-      <c r="BE5" s="71"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="94" t="s">
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU5" s="101"/>
+      <c r="AV5" s="89">
+        <v>43889</v>
+      </c>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="96"/>
+      <c r="BC5" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+    </row>
+    <row r="6" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="94"/>
-      <c r="AS6" s="94"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="77"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="71"/>
-    </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="101"/>
+      <c r="AU6" s="101"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+    </row>
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="110" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="111"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="88" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="88" t="s">
+      <c r="J9" s="80"/>
+      <c r="K9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="88" t="s">
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="88" t="s">
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="78" t="s">
         <v>20</v>
       </c>
       <c r="AB9" s="114"/>
@@ -7828,70 +8705,70 @@
       <c r="AI9" s="114"/>
       <c r="AJ9" s="114"/>
       <c r="AK9" s="115"/>
-      <c r="AL9" s="69" t="s">
+      <c r="AL9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69" t="s">
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69" t="s">
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69" t="s">
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="69"/>
-      <c r="BD9" s="69"/>
-      <c r="BE9" s="69"/>
-    </row>
-    <row r="10" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
+    </row>
+    <row r="10" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="112"/>
       <c r="B10" s="113"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="72" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="74"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="93"/>
       <c r="AG10" s="116" t="s">
         <v>35</v>
       </c>
@@ -7905,64 +8782,64 @@
       <c r="AM10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN10" s="69" t="s">
+      <c r="AN10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
       <c r="AQ10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS10" s="69" t="s">
+      <c r="AS10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
       <c r="AV10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX10" s="69" t="s">
+      <c r="AX10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
       <c r="BA10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC10" s="69" t="s">
+      <c r="BC10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-    </row>
-    <row r="11" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108" t="s">
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+    </row>
+    <row r="11" spans="1:57" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="106"/>
+      <c r="K11" s="104" t="s">
         <v>173</v>
-      </c>
-      <c r="J11" s="109"/>
-      <c r="K11" s="104" t="s">
-        <v>174</v>
       </c>
       <c r="L11" s="102"/>
       <c r="M11" s="102"/>
@@ -7970,7 +8847,7 @@
       <c r="O11" s="102"/>
       <c r="P11" s="103"/>
       <c r="Q11" s="104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" s="102"/>
       <c r="S11" s="102"/>
@@ -7982,7 +8859,7 @@
       <c r="Y11" s="102"/>
       <c r="Z11" s="103"/>
       <c r="AA11" s="104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB11" s="102"/>
       <c r="AC11" s="102"/>
@@ -7990,62 +8867,62 @@
       <c r="AE11" s="102"/>
       <c r="AF11" s="103"/>
       <c r="AG11" s="102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AH11" s="102"/>
       <c r="AI11" s="102"/>
       <c r="AJ11" s="102"/>
       <c r="AK11" s="103"/>
       <c r="AL11" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="68"/>
+        <v>232</v>
+      </c>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
       <c r="AQ11" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS11" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
+        <v>176</v>
+      </c>
+      <c r="AS11" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="68"/>
-      <c r="AY11" s="68"/>
-      <c r="AZ11" s="68"/>
+      <c r="AX11" s="97"/>
+      <c r="AY11" s="88"/>
+      <c r="AZ11" s="88"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="68"/>
-      <c r="BE11" s="68"/>
-    </row>
-    <row r="12" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108" t="s">
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="88"/>
+      <c r="BE11" s="88"/>
+    </row>
+    <row r="12" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="105" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="109"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="106"/>
       <c r="K12" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L12" s="102"/>
       <c r="M12" s="102"/>
@@ -8053,7 +8930,7 @@
       <c r="O12" s="102"/>
       <c r="P12" s="103"/>
       <c r="Q12" s="104" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="R12" s="102"/>
       <c r="S12" s="102"/>
@@ -8065,7 +8942,7 @@
       <c r="Y12" s="102"/>
       <c r="Z12" s="103"/>
       <c r="AA12" s="104" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="AB12" s="102"/>
       <c r="AC12" s="102"/>
@@ -8073,62 +8950,68 @@
       <c r="AE12" s="102"/>
       <c r="AF12" s="103"/>
       <c r="AG12" s="102" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="AH12" s="102"/>
       <c r="AI12" s="102"/>
       <c r="AJ12" s="102"/>
       <c r="AK12" s="103"/>
       <c r="AL12" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="68"/>
+        <v>232</v>
+      </c>
+      <c r="AN12" s="88"/>
+      <c r="AO12" s="88"/>
+      <c r="AP12" s="88"/>
       <c r="AQ12" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS12" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="AS12" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT12" s="97"/>
+      <c r="AU12" s="97"/>
+      <c r="AV12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX12" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY12" s="88"/>
+      <c r="AZ12" s="88"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="68"/>
-    </row>
-    <row r="13" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="108" t="s">
+      <c r="BC12" s="88"/>
+      <c r="BD12" s="88"/>
+      <c r="BE12" s="88"/>
+    </row>
+    <row r="13" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="105" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J13" s="109"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="106"/>
       <c r="K13" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L13" s="102"/>
       <c r="M13" s="102"/>
@@ -8136,7 +9019,7 @@
       <c r="O13" s="102"/>
       <c r="P13" s="103"/>
       <c r="Q13" s="104" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="R13" s="102"/>
       <c r="S13" s="102"/>
@@ -8148,70 +9031,76 @@
       <c r="Y13" s="102"/>
       <c r="Z13" s="103"/>
       <c r="AA13" s="104" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="AB13" s="102"/>
       <c r="AC13" s="102"/>
       <c r="AD13" s="102"/>
       <c r="AE13" s="102"/>
       <c r="AF13" s="103"/>
-      <c r="AG13" s="102" t="s">
-        <v>179</v>
+      <c r="AG13" s="104" t="s">
+        <v>177</v>
       </c>
       <c r="AH13" s="102"/>
       <c r="AI13" s="102"/>
       <c r="AJ13" s="102"/>
       <c r="AK13" s="103"/>
       <c r="AL13" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
+        <v>232</v>
+      </c>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="88"/>
+      <c r="AP13" s="88"/>
       <c r="AQ13" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS13" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="AS13" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX13" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY13" s="88"/>
+      <c r="AZ13" s="88"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
-    </row>
-    <row r="14" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108" t="s">
+      <c r="BC13" s="88"/>
+      <c r="BD13" s="88"/>
+      <c r="BE13" s="88"/>
+    </row>
+    <row r="14" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="105" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="106"/>
+      <c r="K14" s="104" t="s">
         <v>191</v>
-      </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" s="109"/>
-      <c r="K14" s="104" t="s">
-        <v>200</v>
       </c>
       <c r="L14" s="102"/>
       <c r="M14" s="102"/>
@@ -8219,7 +9108,7 @@
       <c r="O14" s="102"/>
       <c r="P14" s="103"/>
       <c r="Q14" s="104" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="R14" s="102"/>
       <c r="S14" s="102"/>
@@ -8231,7 +9120,7 @@
       <c r="Y14" s="102"/>
       <c r="Z14" s="103"/>
       <c r="AA14" s="104" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="AB14" s="102"/>
       <c r="AC14" s="102"/>
@@ -8239,62 +9128,58 @@
       <c r="AE14" s="102"/>
       <c r="AF14" s="103"/>
       <c r="AG14" s="102" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="AH14" s="102"/>
       <c r="AI14" s="102"/>
       <c r="AJ14" s="102"/>
       <c r="AK14" s="103"/>
       <c r="AL14" s="4" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN14" s="68"/>
-      <c r="AO14" s="68"/>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR14" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS14" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
+        <v>176</v>
+      </c>
+      <c r="AN14" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="88"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="97"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="97"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
-      <c r="AX14" s="68"/>
-      <c r="AY14" s="68"/>
-      <c r="AZ14" s="68"/>
+      <c r="AX14" s="88"/>
+      <c r="AY14" s="88"/>
+      <c r="AZ14" s="88"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
-      <c r="BC14" s="68"/>
-      <c r="BD14" s="68"/>
-      <c r="BE14" s="68"/>
-    </row>
-    <row r="15" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="108" t="s">
+      <c r="BC14" s="88"/>
+      <c r="BD14" s="88"/>
+      <c r="BE14" s="88"/>
+    </row>
+    <row r="15" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="105" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J15" s="109"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="106"/>
       <c r="K15" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L15" s="102"/>
       <c r="M15" s="102"/>
@@ -8302,7 +9187,7 @@
       <c r="O15" s="102"/>
       <c r="P15" s="103"/>
       <c r="Q15" s="104" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="R15" s="102"/>
       <c r="S15" s="102"/>
@@ -8314,7 +9199,7 @@
       <c r="Y15" s="102"/>
       <c r="Z15" s="103"/>
       <c r="AA15" s="104" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="AB15" s="102"/>
       <c r="AC15" s="102"/>
@@ -8322,62 +9207,58 @@
       <c r="AE15" s="102"/>
       <c r="AF15" s="103"/>
       <c r="AG15" s="102" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AH15" s="102"/>
       <c r="AI15" s="102"/>
       <c r="AJ15" s="102"/>
       <c r="AK15" s="103"/>
       <c r="AL15" s="4" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR15" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS15" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
+        <v>176</v>
+      </c>
+      <c r="AN15" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO15" s="88"/>
+      <c r="AP15" s="88"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="97"/>
+      <c r="AT15" s="97"/>
+      <c r="AU15" s="97"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
+      <c r="AX15" s="88"/>
+      <c r="AY15" s="88"/>
+      <c r="AZ15" s="88"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-    </row>
-    <row r="16" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="108" t="s">
+      <c r="BC15" s="88"/>
+      <c r="BD15" s="88"/>
+      <c r="BE15" s="88"/>
+    </row>
+    <row r="16" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="105" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J16" s="109"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="106"/>
       <c r="K16" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
@@ -8385,7 +9266,7 @@
       <c r="O16" s="102"/>
       <c r="P16" s="103"/>
       <c r="Q16" s="104" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="R16" s="102"/>
       <c r="S16" s="102"/>
@@ -8397,70 +9278,66 @@
       <c r="Y16" s="102"/>
       <c r="Z16" s="103"/>
       <c r="AA16" s="104" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="AB16" s="102"/>
       <c r="AC16" s="102"/>
       <c r="AD16" s="102"/>
       <c r="AE16" s="102"/>
       <c r="AF16" s="103"/>
-      <c r="AG16" s="102" t="s">
-        <v>177</v>
+      <c r="AG16" s="104" t="s">
+        <v>271</v>
       </c>
       <c r="AH16" s="102"/>
       <c r="AI16" s="102"/>
       <c r="AJ16" s="102"/>
       <c r="AK16" s="103"/>
       <c r="AL16" s="4" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR16" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS16" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
+        <v>176</v>
+      </c>
+      <c r="AN16" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO16" s="88"/>
+      <c r="AP16" s="88"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="97"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
+      <c r="AX16" s="88"/>
+      <c r="AY16" s="88"/>
+      <c r="AZ16" s="88"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-    </row>
-    <row r="17" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="108" t="s">
+      <c r="BC16" s="88"/>
+      <c r="BD16" s="88"/>
+      <c r="BE16" s="88"/>
+    </row>
+    <row r="17" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J17" s="109"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="106"/>
       <c r="K17" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L17" s="102"/>
       <c r="M17" s="102"/>
@@ -8468,7 +9345,7 @@
       <c r="O17" s="102"/>
       <c r="P17" s="103"/>
       <c r="Q17" s="104" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="R17" s="102"/>
       <c r="S17" s="102"/>
@@ -8480,7 +9357,7 @@
       <c r="Y17" s="102"/>
       <c r="Z17" s="103"/>
       <c r="AA17" s="104" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="AB17" s="102"/>
       <c r="AC17" s="102"/>
@@ -8488,62 +9365,58 @@
       <c r="AE17" s="102"/>
       <c r="AF17" s="103"/>
       <c r="AG17" s="102" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="AH17" s="102"/>
       <c r="AI17" s="102"/>
       <c r="AJ17" s="102"/>
       <c r="AK17" s="103"/>
       <c r="AL17" s="4" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="AM17" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="68"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS17" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
+        <v>176</v>
+      </c>
+      <c r="AN17" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO17" s="88"/>
+      <c r="AP17" s="88"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="97"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
+      <c r="AX17" s="88"/>
+      <c r="AY17" s="88"/>
+      <c r="AZ17" s="88"/>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="68"/>
-      <c r="BE17" s="68"/>
-    </row>
-    <row r="18" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108" t="s">
+      <c r="BC17" s="88"/>
+      <c r="BD17" s="88"/>
+      <c r="BE17" s="88"/>
+    </row>
+    <row r="18" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="105" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J18" s="109"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="106"/>
       <c r="K18" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L18" s="102"/>
       <c r="M18" s="102"/>
@@ -8551,7 +9424,7 @@
       <c r="O18" s="102"/>
       <c r="P18" s="103"/>
       <c r="Q18" s="104" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="R18" s="102"/>
       <c r="S18" s="102"/>
@@ -8563,7 +9436,7 @@
       <c r="Y18" s="102"/>
       <c r="Z18" s="103"/>
       <c r="AA18" s="104" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="AB18" s="102"/>
       <c r="AC18" s="102"/>
@@ -8571,62 +9444,58 @@
       <c r="AE18" s="102"/>
       <c r="AF18" s="103"/>
       <c r="AG18" s="102" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="AH18" s="102"/>
       <c r="AI18" s="102"/>
       <c r="AJ18" s="102"/>
       <c r="AK18" s="103"/>
       <c r="AL18" s="4" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="AM18" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN18" s="68"/>
-      <c r="AO18" s="68"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS18" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
+        <v>176</v>
+      </c>
+      <c r="AN18" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO18" s="88"/>
+      <c r="AP18" s="88"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="97"/>
+      <c r="AU18" s="97"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
+      <c r="AX18" s="88"/>
+      <c r="AY18" s="88"/>
+      <c r="AZ18" s="88"/>
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="68"/>
-    </row>
-    <row r="19" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="108" t="s">
+      <c r="BC18" s="88"/>
+      <c r="BD18" s="88"/>
+      <c r="BE18" s="88"/>
+    </row>
+    <row r="19" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="105" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" s="109"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="106"/>
       <c r="K19" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L19" s="102"/>
       <c r="M19" s="102"/>
@@ -8634,7 +9503,7 @@
       <c r="O19" s="102"/>
       <c r="P19" s="103"/>
       <c r="Q19" s="104" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="R19" s="102"/>
       <c r="S19" s="102"/>
@@ -8646,70 +9515,66 @@
       <c r="Y19" s="102"/>
       <c r="Z19" s="103"/>
       <c r="AA19" s="104" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AB19" s="102"/>
       <c r="AC19" s="102"/>
       <c r="AD19" s="102"/>
       <c r="AE19" s="102"/>
       <c r="AF19" s="103"/>
-      <c r="AG19" s="102" t="s">
-        <v>177</v>
+      <c r="AG19" s="104" t="s">
+        <v>276</v>
       </c>
       <c r="AH19" s="102"/>
       <c r="AI19" s="102"/>
       <c r="AJ19" s="102"/>
       <c r="AK19" s="103"/>
       <c r="AL19" s="4" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="68"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR19" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS19" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
+        <v>176</v>
+      </c>
+      <c r="AN19" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO19" s="88"/>
+      <c r="AP19" s="88"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="97"/>
+      <c r="AT19" s="97"/>
+      <c r="AU19" s="97"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
+      <c r="AX19" s="88"/>
+      <c r="AY19" s="88"/>
+      <c r="AZ19" s="88"/>
       <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-    </row>
-    <row r="20" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="108" t="s">
+      <c r="BC19" s="88"/>
+      <c r="BD19" s="88"/>
+      <c r="BE19" s="88"/>
+    </row>
+    <row r="20" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J20" s="109"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="106"/>
       <c r="K20" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L20" s="102"/>
       <c r="M20" s="102"/>
@@ -8717,7 +9582,7 @@
       <c r="O20" s="102"/>
       <c r="P20" s="103"/>
       <c r="Q20" s="104" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="R20" s="102"/>
       <c r="S20" s="102"/>
@@ -8729,7 +9594,7 @@
       <c r="Y20" s="102"/>
       <c r="Z20" s="103"/>
       <c r="AA20" s="104" t="s">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="AB20" s="102"/>
       <c r="AC20" s="102"/>
@@ -8737,62 +9602,68 @@
       <c r="AE20" s="102"/>
       <c r="AF20" s="103"/>
       <c r="AG20" s="102" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="AH20" s="102"/>
       <c r="AI20" s="102"/>
       <c r="AJ20" s="102"/>
       <c r="AK20" s="103"/>
       <c r="AL20" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AM20" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
+        <v>232</v>
+      </c>
+      <c r="AN20" s="88"/>
+      <c r="AO20" s="88"/>
+      <c r="AP20" s="88"/>
       <c r="AQ20" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS20" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="AS20" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT20" s="97"/>
+      <c r="AU20" s="97"/>
+      <c r="AV20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX20" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY20" s="88"/>
+      <c r="AZ20" s="88"/>
       <c r="BA20" s="4"/>
       <c r="BB20" s="4"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="68"/>
-    </row>
-    <row r="21" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="108" t="s">
+      <c r="BC20" s="88"/>
+      <c r="BD20" s="88"/>
+      <c r="BE20" s="88"/>
+    </row>
+    <row r="21" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="105" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J21" s="109"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="106"/>
       <c r="K21" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L21" s="102"/>
       <c r="M21" s="102"/>
@@ -8800,7 +9671,7 @@
       <c r="O21" s="102"/>
       <c r="P21" s="103"/>
       <c r="Q21" s="104" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="R21" s="102"/>
       <c r="S21" s="102"/>
@@ -8812,7 +9683,7 @@
       <c r="Y21" s="102"/>
       <c r="Z21" s="103"/>
       <c r="AA21" s="104" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="AB21" s="102"/>
       <c r="AC21" s="102"/>
@@ -8820,98 +9691,866 @@
       <c r="AE21" s="102"/>
       <c r="AF21" s="103"/>
       <c r="AG21" s="102" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="AH21" s="102"/>
       <c r="AI21" s="102"/>
       <c r="AJ21" s="102"/>
       <c r="AK21" s="103"/>
       <c r="AL21" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AM21" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
+        <v>232</v>
+      </c>
+      <c r="AN21" s="88"/>
+      <c r="AO21" s="88"/>
+      <c r="AP21" s="88"/>
       <c r="AQ21" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS21" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="AS21" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT21" s="97"/>
+      <c r="AU21" s="97"/>
+      <c r="AV21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX21" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY21" s="88"/>
+      <c r="AZ21" s="88"/>
       <c r="BA21" s="4"/>
       <c r="BB21" s="4"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
+      <c r="BC21" s="88"/>
+      <c r="BD21" s="88"/>
+      <c r="BE21" s="88"/>
+    </row>
+    <row r="22" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="106"/>
+      <c r="K22" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH22" s="102"/>
+      <c r="AI22" s="102"/>
+      <c r="AJ22" s="102"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN22" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO22" s="88"/>
+      <c r="AP22" s="88"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="97"/>
+      <c r="AT22" s="97"/>
+      <c r="AU22" s="97"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="88"/>
+      <c r="AY22" s="88"/>
+      <c r="AZ22" s="88"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="88"/>
+      <c r="BD22" s="88"/>
+      <c r="BE22" s="88"/>
+    </row>
+    <row r="23" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="106"/>
+      <c r="K23" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="103"/>
+      <c r="AA23" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="103"/>
+      <c r="AG23" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH23" s="102"/>
+      <c r="AI23" s="102"/>
+      <c r="AJ23" s="102"/>
+      <c r="AK23" s="103"/>
+      <c r="AL23" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN23" s="88"/>
+      <c r="AO23" s="88"/>
+      <c r="AP23" s="88"/>
+      <c r="AQ23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS23" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT23" s="97"/>
+      <c r="AU23" s="97"/>
+      <c r="AV23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX23" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY23" s="88"/>
+      <c r="AZ23" s="88"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="88"/>
+      <c r="BD23" s="88"/>
+      <c r="BE23" s="88"/>
+    </row>
+    <row r="24" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="106"/>
+      <c r="C24" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="106"/>
+      <c r="K24" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="102"/>
+      <c r="AF24" s="103"/>
+      <c r="AG24" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="102"/>
+      <c r="AJ24" s="102"/>
+      <c r="AK24" s="103"/>
+      <c r="AL24" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN24" s="88"/>
+      <c r="AO24" s="88"/>
+      <c r="AP24" s="88"/>
+      <c r="AQ24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS24" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT24" s="97"/>
+      <c r="AU24" s="97"/>
+      <c r="AV24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX24" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY24" s="88"/>
+      <c r="AZ24" s="88"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="88"/>
+      <c r="BD24" s="88"/>
+      <c r="BE24" s="88"/>
+    </row>
+    <row r="25" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="106"/>
+      <c r="C25" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="106"/>
+      <c r="K25" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="103"/>
+      <c r="AA25" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="102"/>
+      <c r="AF25" s="103"/>
+      <c r="AG25" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="102"/>
+      <c r="AJ25" s="102"/>
+      <c r="AK25" s="103"/>
+      <c r="AL25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN25" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO25" s="88"/>
+      <c r="AP25" s="88"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="97"/>
+      <c r="AT25" s="97"/>
+      <c r="AU25" s="97"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="88"/>
+      <c r="AY25" s="88"/>
+      <c r="AZ25" s="88"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="88"/>
+      <c r="BD25" s="88"/>
+      <c r="BE25" s="88"/>
+    </row>
+    <row r="26" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="106"/>
+      <c r="C26" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="106"/>
+      <c r="K26" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="104" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="102"/>
+      <c r="AF26" s="103"/>
+      <c r="AG26" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="102"/>
+      <c r="AJ26" s="102"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM26" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN26" s="88"/>
+      <c r="AO26" s="88"/>
+      <c r="AP26" s="88"/>
+      <c r="AQ26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS26" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT26" s="97"/>
+      <c r="AU26" s="97"/>
+      <c r="AV26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX26" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY26" s="88"/>
+      <c r="AZ26" s="88"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="88"/>
+      <c r="BD26" s="88"/>
+      <c r="BE26" s="88"/>
+    </row>
+    <row r="27" spans="1:57" ht="132.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="106"/>
+      <c r="K27" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="102"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH27" s="102"/>
+      <c r="AI27" s="102"/>
+      <c r="AJ27" s="102"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM27" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN27" s="88"/>
+      <c r="AO27" s="88"/>
+      <c r="AP27" s="88"/>
+      <c r="AQ27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS27" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT27" s="97"/>
+      <c r="AU27" s="97"/>
+      <c r="AV27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX27" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY27" s="88"/>
+      <c r="AZ27" s="88"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="88"/>
+      <c r="BD27" s="88"/>
+      <c r="BE27" s="88"/>
+    </row>
+    <row r="28" spans="1:57" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="106"/>
+      <c r="K28" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="103"/>
+      <c r="AA28" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="102"/>
+      <c r="AF28" s="103"/>
+      <c r="AG28" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="102"/>
+      <c r="AJ28" s="102"/>
+      <c r="AK28" s="103"/>
+      <c r="AL28" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM28" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN28" s="88"/>
+      <c r="AO28" s="88"/>
+      <c r="AP28" s="88"/>
+      <c r="AQ28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS28" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT28" s="97"/>
+      <c r="AU28" s="97"/>
+      <c r="AV28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX28" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY28" s="88"/>
+      <c r="AZ28" s="88"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="88"/>
+      <c r="BD28" s="88"/>
+      <c r="BE28" s="88"/>
+    </row>
+    <row r="29" spans="1:57" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="106"/>
+      <c r="K29" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="102"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="102"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM29" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN29" s="88"/>
+      <c r="AO29" s="88"/>
+      <c r="AP29" s="88"/>
+      <c r="AQ29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS29" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT29" s="97"/>
+      <c r="AU29" s="97"/>
+      <c r="AV29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX29" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY29" s="88"/>
+      <c r="AZ29" s="88"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="88"/>
+      <c r="BD29" s="88"/>
+      <c r="BE29" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="BC20:BE20"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AN20:AP20"/>
+  <mergeCells count="263">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="AA15:AF15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="AA17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AS18:AU18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:P19"/>
     <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="AA25:AF25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AN25:AP25"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="Q29:Z29"/>
+    <mergeCell ref="AG29:AK29"/>
+    <mergeCell ref="AN29:AP29"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="AA29:AF29"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AG27:AK27"/>
+    <mergeCell ref="AN27:AP27"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="AG28:AK28"/>
+    <mergeCell ref="AN28:AP28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="Q27:Z27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
     <mergeCell ref="I20:J20"/>
+    <mergeCell ref="Q20:Z20"/>
     <mergeCell ref="K20:P20"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="K14:P14"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:P13"/>
     <mergeCell ref="Q13:Z13"/>
     <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="Q28:Z28"/>
+    <mergeCell ref="AA27:AF27"/>
+    <mergeCell ref="AA28:AF28"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="AA26:AF26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="AA22:AF22"/>
     <mergeCell ref="Q12:Z12"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="AA9:AK9"/>
     <mergeCell ref="AA10:AF10"/>
     <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="AA15:AF15"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="AA21:AF21"/>
     <mergeCell ref="A4:C6"/>
     <mergeCell ref="K9:P10"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C20:H20"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A13:B13"/>
@@ -8923,71 +10562,65 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="AA12:AF12"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="BC12:BE12"/>
     <mergeCell ref="AA11:AF11"/>
-    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="BC20:BE20"/>
     <mergeCell ref="AN11:AP11"/>
     <mergeCell ref="BC13:BE13"/>
     <mergeCell ref="AS13:AU13"/>
     <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="AG20:AK20"/>
     <mergeCell ref="AN13:AP13"/>
     <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AA17:AF17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="AA16:AF16"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="BC18:BE18"/>
     <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="BC17:BE17"/>
     <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="BC17:BE17"/>
     <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="AS15:AU15"/>
     <mergeCell ref="AX15:AZ15"/>
     <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BC6:BE6"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="AA24:AF24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="AZ5:BB5"/>
     <mergeCell ref="AV6:AY6"/>
     <mergeCell ref="AT5:AU5"/>
@@ -8996,7 +10629,29 @@
     <mergeCell ref="BC4:BE4"/>
     <mergeCell ref="AV5:AY5"/>
     <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="AG26:AK26"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="BC26:BE26"/>
     <mergeCell ref="AX10:AZ10"/>
     <mergeCell ref="BC10:BE10"/>
     <mergeCell ref="AV9:AZ9"/>
@@ -9004,19 +10659,14 @@
     <mergeCell ref="AO2:AO6"/>
     <mergeCell ref="AP4:AS4"/>
     <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AN2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AS18:AU18"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="BC6:BE6"/>
+    <mergeCell ref="AZ4:BB4"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D3:AN3"/>
@@ -9033,18 +10683,25 @@
     <mergeCell ref="AS10:AU10"/>
     <mergeCell ref="AQ9:AU9"/>
     <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AN2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT6:AU6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:J21" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:J29" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AA2:AN2" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"HW設定確認テスト,HW動作確認テスト,MW設定確認テスト,MW動作確認テスト,疎通テスト,入出力バリエーションテスト,制御パステスト,静的解析,コンポーネント統合テスト,システム統合テスト,機能テスト,業務シナリオテスト,セキュリティテスト,ドキュメントテスト,サイクルテスト,ユーザビリティテスト,信頼性テスト,リカバリテスト,耐障害性テスト,性能テスト,ストレステスト,ボリュームテスト,ストレージテスト,監視テスト,構成テスト,インストールテスト"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="K2:O2" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA11:BB21 AV11:AW21 AL11:AM21 AQ11:AR21" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA11:BB29 AL11:AM29 AQ11:AR29 AV11:AW29" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S2:W2" xr:uid="{00000000-0002-0000-0400-000004000000}">
@@ -9065,411 +10722,419 @@
   <dimension ref="A1:BE12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3:BE3"/>
+      <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="36" width="3.625" style="1" customWidth="1"/>
-    <col min="37" max="39" width="3.875" style="1" customWidth="1"/>
-    <col min="40" max="42" width="3.625" style="1" customWidth="1"/>
-    <col min="43" max="44" width="3.875" style="1" customWidth="1"/>
-    <col min="45" max="47" width="3.625" style="1" customWidth="1"/>
-    <col min="48" max="49" width="3.875" style="1" customWidth="1"/>
-    <col min="50" max="52" width="3.625" style="1" customWidth="1"/>
-    <col min="53" max="54" width="3.875" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="3.625" style="1"/>
+    <col min="1" max="36" width="3.6640625" style="1" customWidth="1"/>
+    <col min="37" max="39" width="3.88671875" style="1" customWidth="1"/>
+    <col min="40" max="42" width="3.6640625" style="1" customWidth="1"/>
+    <col min="43" max="44" width="3.88671875" style="1" customWidth="1"/>
+    <col min="45" max="47" width="3.6640625" style="1" customWidth="1"/>
+    <col min="48" max="49" width="3.88671875" style="1" customWidth="1"/>
+    <col min="50" max="52" width="3.6640625" style="1" customWidth="1"/>
+    <col min="53" max="54" width="3.88671875" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="83" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="99" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="83" t="s">
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="99" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="83" t="s">
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="84" t="s">
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="95" t="s">
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="69" t="s">
+      <c r="AP2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69" t="s">
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="72" t="s">
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="69" t="s">
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="77"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="94" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="70">
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="89">
         <v>43873</v>
       </c>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="75" t="s">
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89"/>
+      <c r="AZ3" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+    </row>
+    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-    </row>
-    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="94" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="96"/>
-      <c r="AP5" s="94" t="s">
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="89">
+        <v>43889</v>
+      </c>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="71"/>
-      <c r="BE5" s="71"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="94" t="s">
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="101"/>
+      <c r="AU5" s="101"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="96"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="94"/>
-      <c r="AS6" s="94"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="77"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="71"/>
-    </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="101"/>
+      <c r="AU6" s="101"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+    </row>
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="110" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="111"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="88" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="88" t="s">
+      <c r="J9" s="80"/>
+      <c r="K9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="88" t="s">
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="88" t="s">
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="78" t="s">
         <v>20</v>
       </c>
       <c r="AB9" s="114"/>
@@ -9482,70 +11147,70 @@
       <c r="AI9" s="114"/>
       <c r="AJ9" s="114"/>
       <c r="AK9" s="115"/>
-      <c r="AL9" s="69" t="s">
+      <c r="AL9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69" t="s">
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69" t="s">
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69" t="s">
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="69"/>
-      <c r="BD9" s="69"/>
-      <c r="BE9" s="69"/>
-    </row>
-    <row r="10" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
+    </row>
+    <row r="10" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="112"/>
       <c r="B10" s="113"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="72" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="74"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="93"/>
       <c r="AG10" s="116" t="s">
         <v>35</v>
       </c>
@@ -9559,64 +11224,64 @@
       <c r="AM10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN10" s="69" t="s">
+      <c r="AN10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
       <c r="AQ10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS10" s="69" t="s">
+      <c r="AS10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
       <c r="AV10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX10" s="69" t="s">
+      <c r="AX10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
       <c r="BA10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC10" s="69" t="s">
+      <c r="BC10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-    </row>
-    <row r="11" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108" t="s">
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+    </row>
+    <row r="11" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="106"/>
+      <c r="K11" s="104" t="s">
         <v>173</v>
-      </c>
-      <c r="J11" s="109"/>
-      <c r="K11" s="104" t="s">
-        <v>174</v>
       </c>
       <c r="L11" s="102"/>
       <c r="M11" s="102"/>
@@ -9624,7 +11289,7 @@
       <c r="O11" s="102"/>
       <c r="P11" s="103"/>
       <c r="Q11" s="104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" s="102"/>
       <c r="S11" s="102"/>
@@ -9636,7 +11301,7 @@
       <c r="Y11" s="102"/>
       <c r="Z11" s="103"/>
       <c r="AA11" s="104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB11" s="102"/>
       <c r="AC11" s="102"/>
@@ -9644,56 +11309,60 @@
       <c r="AE11" s="102"/>
       <c r="AF11" s="103"/>
       <c r="AG11" s="102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AH11" s="102"/>
       <c r="AI11" s="102"/>
       <c r="AJ11" s="102"/>
       <c r="AK11" s="103"/>
       <c r="AL11" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="68"/>
-      <c r="AU11" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
+      <c r="AQ11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="88"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="68"/>
-      <c r="AY11" s="68"/>
-      <c r="AZ11" s="68"/>
+      <c r="AX11" s="88"/>
+      <c r="AY11" s="88"/>
+      <c r="AZ11" s="88"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="68"/>
-      <c r="BE11" s="68"/>
-    </row>
-    <row r="12" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108" t="s">
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="88"/>
+      <c r="BE11" s="88"/>
+    </row>
+    <row r="12" spans="1:57" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="109"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="106"/>
       <c r="K12" s="104" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L12" s="102"/>
       <c r="M12" s="102"/>
@@ -9701,7 +11370,7 @@
       <c r="O12" s="102"/>
       <c r="P12" s="103"/>
       <c r="Q12" s="104" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="R12" s="102"/>
       <c r="S12" s="102"/>
@@ -9713,7 +11382,7 @@
       <c r="Y12" s="102"/>
       <c r="Z12" s="103"/>
       <c r="AA12" s="104" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="AB12" s="102"/>
       <c r="AC12" s="102"/>
@@ -9721,36 +11390,42 @@
       <c r="AE12" s="102"/>
       <c r="AF12" s="103"/>
       <c r="AG12" s="102" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="AH12" s="102"/>
       <c r="AI12" s="102"/>
       <c r="AJ12" s="102"/>
       <c r="AK12" s="103"/>
       <c r="AL12" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="68"/>
-      <c r="AU12" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="AN12" s="88"/>
+      <c r="AO12" s="88"/>
+      <c r="AP12" s="88"/>
+      <c r="AQ12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS12" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT12" s="88"/>
+      <c r="AU12" s="88"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
+      <c r="AX12" s="88"/>
+      <c r="AY12" s="88"/>
+      <c r="AZ12" s="88"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="68"/>
+      <c r="BC12" s="88"/>
+      <c r="BD12" s="88"/>
+      <c r="BE12" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="76">
@@ -9836,7 +11511,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S2:W2" xr:uid="{2A8B5E73-44CC-4ADF-AA3F-022D99FFBEFB}">
       <formula1>"-,NFR-F-00n,NFR-U-00n,NFR-R-00n,NFR-E-00n,NFR-M-00n,NFR-P-00n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ11:AR12 AV11:AW12 AL11:AM12 BA11:BB12" xr:uid="{FFB4D72E-41CB-4AF0-95C3-66B5EB803981}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA11:BB12 AV11:AW12 AL11:AM12 AQ11:AR12" xr:uid="{FFB4D72E-41CB-4AF0-95C3-66B5EB803981}">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="K2:O2" xr:uid="{14FF4609-560F-42EE-A4D6-12D0600A59A6}"/>
@@ -9860,412 +11535,420 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D593EAE9-A880-42C3-8D7C-2DF28FC9513C}">
   <dimension ref="A1:BE13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:AN6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4:BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="36" width="3.625" style="1" customWidth="1"/>
-    <col min="37" max="39" width="3.875" style="1" customWidth="1"/>
-    <col min="40" max="42" width="3.625" style="1" customWidth="1"/>
-    <col min="43" max="44" width="3.875" style="1" customWidth="1"/>
-    <col min="45" max="47" width="3.625" style="1" customWidth="1"/>
-    <col min="48" max="49" width="3.875" style="1" customWidth="1"/>
-    <col min="50" max="52" width="3.625" style="1" customWidth="1"/>
-    <col min="53" max="54" width="3.875" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="3.625" style="1"/>
+    <col min="1" max="36" width="3.6640625" style="1" customWidth="1"/>
+    <col min="37" max="39" width="3.88671875" style="1" customWidth="1"/>
+    <col min="40" max="42" width="3.6640625" style="1" customWidth="1"/>
+    <col min="43" max="44" width="3.88671875" style="1" customWidth="1"/>
+    <col min="45" max="47" width="3.6640625" style="1" customWidth="1"/>
+    <col min="48" max="49" width="3.88671875" style="1" customWidth="1"/>
+    <col min="50" max="52" width="3.6640625" style="1" customWidth="1"/>
+    <col min="53" max="54" width="3.88671875" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="83" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="99" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="83" t="s">
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="99" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="83" t="s">
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="84" t="s">
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="95" t="s">
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="69" t="s">
+      <c r="AP2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69" t="s">
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="72" t="s">
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="69" t="s">
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="77"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="94" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="70">
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="89">
         <v>43873</v>
       </c>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="71" t="s">
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89"/>
+      <c r="AZ3" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+    </row>
+    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-    </row>
-    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="94" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="96"/>
-      <c r="AP5" s="94" t="s">
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="89">
+        <v>43889</v>
+      </c>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="71"/>
-      <c r="BE5" s="71"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="94" t="s">
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="101"/>
+      <c r="AU5" s="101"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="96"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="94"/>
-      <c r="AS6" s="94"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="77"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="71"/>
-    </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="101"/>
+      <c r="AU6" s="101"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+    </row>
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="110" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="111"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="88" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="88" t="s">
+      <c r="J9" s="80"/>
+      <c r="K9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="88" t="s">
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="88" t="s">
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="78" t="s">
         <v>20</v>
       </c>
       <c r="AB9" s="114"/>
@@ -10278,70 +11961,70 @@
       <c r="AI9" s="114"/>
       <c r="AJ9" s="114"/>
       <c r="AK9" s="115"/>
-      <c r="AL9" s="69" t="s">
+      <c r="AL9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69" t="s">
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69" t="s">
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69" t="s">
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="69"/>
-      <c r="BD9" s="69"/>
-      <c r="BE9" s="69"/>
-    </row>
-    <row r="10" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
+    </row>
+    <row r="10" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="112"/>
       <c r="B10" s="113"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="72" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="74"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="93"/>
       <c r="AG10" s="116" t="s">
         <v>35</v>
       </c>
@@ -10355,64 +12038,64 @@
       <c r="AM10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN10" s="69" t="s">
+      <c r="AN10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
       <c r="AQ10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS10" s="69" t="s">
+      <c r="AS10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
       <c r="AV10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX10" s="69" t="s">
+      <c r="AX10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
       <c r="BA10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC10" s="69" t="s">
+      <c r="BC10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-    </row>
-    <row r="11" spans="1:57" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108" t="s">
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+    </row>
+    <row r="11" spans="1:57" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="106"/>
+      <c r="K11" s="104" t="s">
         <v>173</v>
-      </c>
-      <c r="J11" s="109"/>
-      <c r="K11" s="104" t="s">
-        <v>174</v>
       </c>
       <c r="L11" s="102"/>
       <c r="M11" s="102"/>
@@ -10420,7 +12103,7 @@
       <c r="O11" s="102"/>
       <c r="P11" s="103"/>
       <c r="Q11" s="104" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="R11" s="102"/>
       <c r="S11" s="102"/>
@@ -10432,7 +12115,7 @@
       <c r="Y11" s="102"/>
       <c r="Z11" s="103"/>
       <c r="AA11" s="104" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AB11" s="102"/>
       <c r="AC11" s="102"/>
@@ -10440,56 +12123,60 @@
       <c r="AE11" s="102"/>
       <c r="AF11" s="103"/>
       <c r="AG11" s="102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AH11" s="102"/>
       <c r="AI11" s="102"/>
       <c r="AJ11" s="102"/>
       <c r="AK11" s="103"/>
       <c r="AL11" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="68"/>
-      <c r="AU11" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
+      <c r="AQ11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="88"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="68"/>
-      <c r="AY11" s="68"/>
-      <c r="AZ11" s="68"/>
+      <c r="AX11" s="88"/>
+      <c r="AY11" s="88"/>
+      <c r="AZ11" s="88"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="68"/>
-      <c r="BE11" s="68"/>
-    </row>
-    <row r="12" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108" t="s">
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="88"/>
+      <c r="BE11" s="88"/>
+    </row>
+    <row r="12" spans="1:57" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="105" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="109"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="106"/>
       <c r="K12" s="104" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L12" s="102"/>
       <c r="M12" s="102"/>
@@ -10497,7 +12184,7 @@
       <c r="O12" s="102"/>
       <c r="P12" s="103"/>
       <c r="Q12" s="104" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="R12" s="102"/>
       <c r="S12" s="102"/>
@@ -10509,7 +12196,7 @@
       <c r="Y12" s="102"/>
       <c r="Z12" s="103"/>
       <c r="AA12" s="104" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AB12" s="102"/>
       <c r="AC12" s="102"/>
@@ -10517,56 +12204,62 @@
       <c r="AE12" s="102"/>
       <c r="AF12" s="103"/>
       <c r="AG12" s="102" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="AH12" s="102"/>
       <c r="AI12" s="102"/>
       <c r="AJ12" s="102"/>
       <c r="AK12" s="103"/>
       <c r="AL12" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="68"/>
-      <c r="AU12" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="AN12" s="88"/>
+      <c r="AO12" s="88"/>
+      <c r="AP12" s="88"/>
+      <c r="AQ12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS12" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT12" s="88"/>
+      <c r="AU12" s="88"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
+      <c r="AX12" s="88"/>
+      <c r="AY12" s="88"/>
+      <c r="AZ12" s="88"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="68"/>
-    </row>
-    <row r="13" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="108" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="105" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="J13" s="109"/>
+      <c r="BC12" s="88"/>
+      <c r="BD12" s="88"/>
+      <c r="BE12" s="88"/>
+    </row>
+    <row r="13" spans="1:57" ht="79.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="106"/>
       <c r="K13" s="104" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L13" s="102"/>
       <c r="M13" s="102"/>
@@ -10574,7 +12267,7 @@
       <c r="O13" s="102"/>
       <c r="P13" s="103"/>
       <c r="Q13" s="104" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="R13" s="102"/>
       <c r="S13" s="102"/>
@@ -10586,7 +12279,7 @@
       <c r="Y13" s="102"/>
       <c r="Z13" s="103"/>
       <c r="AA13" s="104" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AB13" s="102"/>
       <c r="AC13" s="102"/>
@@ -10594,36 +12287,42 @@
       <c r="AE13" s="102"/>
       <c r="AF13" s="103"/>
       <c r="AG13" s="102" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="AH13" s="102"/>
       <c r="AI13" s="102"/>
       <c r="AJ13" s="102"/>
       <c r="AK13" s="103"/>
       <c r="AL13" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="68"/>
-      <c r="AU13" s="68"/>
+        <v>176</v>
+      </c>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="88"/>
+      <c r="AP13" s="88"/>
+      <c r="AQ13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS13" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT13" s="88"/>
+      <c r="AU13" s="88"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
+      <c r="AX13" s="88"/>
+      <c r="AY13" s="88"/>
+      <c r="AZ13" s="88"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
+      <c r="BC13" s="88"/>
+      <c r="BD13" s="88"/>
+      <c r="BE13" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -10724,7 +12423,7 @@
       <formula1>"HW設定確認テスト,HW動作確認テスト,MW設定確認テスト,MW動作確認テスト,疎通テスト,入出力バリエーションテスト,制御パステスト,静的解析,コンポーネント統合テスト,システム統合テスト,機能テスト,業務シナリオテスト,セキュリティテスト,ドキュメントテスト,サイクルテスト,ユーザビリティテスト,信頼性テスト,リカバリテスト,耐障害性テスト,性能テスト,ストレステスト,ボリュームテスト,ストレージテスト,監視テスト,構成テスト,インストールテスト"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="K2:O2" xr:uid="{52E54BCD-226D-4A4E-B965-A525819AC783}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ11:AR13 AV11:AW13 AL11:AM13 BA11:BB13" xr:uid="{01A4A7A2-85EF-44EB-927F-7DC790D9163C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA11:BB13 AV11:AW13 AL11:AM13 AQ11:AR13" xr:uid="{01A4A7A2-85EF-44EB-927F-7DC790D9163C}">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S2:W2" xr:uid="{D1428BD1-19F0-4FFB-9C94-E8716712D108}">
